--- a/pred_ohlcv/54_21/2019-10-11 TRUE ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-11 TRUE ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-27642.24102816901</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-30445.42882816901</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-30342.53652816901</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-31120.25272816901</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-29841.13942816901</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-30095.25472816901</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-30095.25472816901</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-30095.25472816901</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-30079.06722816901</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-30808.10662816901</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-30808.10662816901</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-30808.10662816901</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-30342.16382816901</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-30343.16382816901</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-30314.96842816901</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-30314.96842816901</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-30318.18002816901</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-30318.18002816901</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-29621.34442816901</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-28321.34442816901</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-28321.34442816901</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-28321.34442816901</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-28321.34442816901</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-28939.00542816901</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-32037.88882816901</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-31978.78222816901</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-32990.17562816901</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-32990.17562816901</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-32988.00322816901</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-34300.69022816901</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-34100.69022816901</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-33235.69022816901</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-42061.66482816901</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-45514.56222816901</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-45374.06142816901</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-50026.694628169</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-50025.594828169</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-57296.201628169</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-57296.201628169</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-57296.201628169</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-57296.201628169</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-57297.201628169</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-57298.201628169</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-58888.426428169</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-58888.426428169</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-59073.426328169</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-59073.426328169</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-59073.426328169</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-59073.426328169</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-59073.426328169</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-59073.426328169</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-53153.926628169</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-53153.926628169</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-53079.210128169</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-53183.283528169</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-53183.283528169</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-53183.283528169</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-53183.283528169</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-53183.283528169</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-53183.283528169</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-53183.283528169</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-53183.283528169</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-54229.454928169</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-54227.091328169</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-59720.523228169</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-59720.523228169</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-61031.84772816899</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-61033.02952816899</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-62526.72542816899</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-83848.457428169</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-86393.64192816902</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-74874.7453722951</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-74844.7453722951</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-66160.81410223861</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-64436.3015722951</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-67715.52337229511</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-68011.44437229511</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-78550.70884235161</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-78616.38404235161</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-79232.00994235161</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-78805.84094235161</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-79978.40684235161</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-79893.54574235162</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-78540.93534235161</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-77720.58144235161</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-77720.58144235161</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-76491.96524235161</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-76439.63714235161</v>
       </c>
       <c r="H125">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-91759.47394235161</v>
       </c>
       <c r="H126">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-91815.66824235162</v>
       </c>
       <c r="H127">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-92404.80424235162</v>
       </c>
       <c r="H128">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-92404.80424235162</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-92635.65404235161</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-93637.51254235161</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-93637.51254235161</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-94249.33304235162</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-94247.09164235162</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-94247.09164235162</v>
       </c>
       <c r="H135">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-94256.48744235162</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-94256.48744235162</v>
       </c>
       <c r="H137">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-96809.41903185598</v>
       </c>
       <c r="H138">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-97796.70473185598</v>
       </c>
       <c r="H139">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-97796.70473185598</v>
       </c>
       <c r="H140">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-97796.70473185598</v>
       </c>
       <c r="H141">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-119409.859031856</v>
       </c>
       <c r="H142">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-120310.265231856</v>
       </c>
       <c r="H143">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>-133274.7143878774</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>-131714.7143878774</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-131985.4383878774</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>-130809.6003878774</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>-130809.6003878774</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>-130809.6003878774</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>-131005.4500878774</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>-130725.4500878774</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>-129672.3080878774</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>-130020.1500878774</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>-130020.1500878774</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>-130020.1500878774</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>-127005.7288878774</v>
       </c>
       <c r="H190">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>-127306.7288878774</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>-126773.7113878774</v>
       </c>
       <c r="H192">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>-125019.0106878774</v>
       </c>
       <c r="H193">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>-125029.0106878774</v>
       </c>
       <c r="H194">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>-130281.6825878774</v>
       </c>
       <c r="H195">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>-131128.1360878774</v>
       </c>
       <c r="H196">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>-131128.1360878774</v>
       </c>
       <c r="H197">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>-129986.1360878774</v>
       </c>
       <c r="H198">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>-129986.1360878774</v>
       </c>
       <c r="H199">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>-129986.1360878774</v>
       </c>
       <c r="H200">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>-128620.1360878774</v>
       </c>
       <c r="H201">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>-128912.1087878774</v>
       </c>
       <c r="H202">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>-128172.1087878774</v>
       </c>
       <c r="H203">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>-128380.4767878774</v>
       </c>
       <c r="H204">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>-128181.1069878774</v>
       </c>
       <c r="H205">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>-125565.5589374426</v>
       </c>
       <c r="H206">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>-125565.5589374426</v>
       </c>
       <c r="H207">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>-125919.1299374426</v>
       </c>
       <c r="H208">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>-122234.0357374426</v>
       </c>
       <c r="H209">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>-124902.1469374426</v>
       </c>
       <c r="H210">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>-131222.2212374426</v>
       </c>
       <c r="H213">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>-130071.564544668</v>
       </c>
       <c r="H214">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>-130251.564544668</v>
       </c>
       <c r="H215">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>-129950.996444668</v>
       </c>
       <c r="H216">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>-130655.996444668</v>
       </c>
       <c r="H217">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>-130835.996444668</v>
       </c>
       <c r="H218">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>-137305.472644668</v>
       </c>
       <c r="H221">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>-173254.718944668</v>
       </c>
       <c r="H235">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>-173544.416144668</v>
       </c>
       <c r="H236">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>-173114.371844668</v>
       </c>
       <c r="H237">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>-173113.105644668</v>
       </c>
       <c r="H238">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>-172548.105644668</v>
       </c>
       <c r="H239">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>-173033.105644668</v>
       </c>
       <c r="H240">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>-173033.105644668</v>
       </c>
       <c r="H241">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>-173381.665644668</v>
       </c>
       <c r="H242">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>-173034.258544668</v>
       </c>
       <c r="H243">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>-173034.258544668</v>
       </c>
       <c r="H244">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>-173034.258544668</v>
       </c>
       <c r="H245">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>-173034.258544668</v>
       </c>
       <c r="H246">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>-173135.258544668</v>
       </c>
       <c r="H247">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>-172648.79613868</v>
       </c>
       <c r="H249">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>-172996.35613868</v>
       </c>
       <c r="H250">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>-172993.35613868</v>
       </c>
       <c r="H251">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>-178314.03993868</v>
       </c>
       <c r="H252">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>-177784.01633868</v>
       </c>
       <c r="H253">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>-176440.01633868</v>
       </c>
       <c r="H255">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>-176440.01633868</v>
       </c>
       <c r="H256">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>-176440.01633868</v>
       </c>
       <c r="H257">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>-186441.01633868</v>
       </c>
       <c r="H258">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>-186453.01633868</v>
       </c>
       <c r="H259">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>-186450.01633868</v>
       </c>
       <c r="H260">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>-188003.64823868</v>
       </c>
       <c r="H261">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>-187824.64823868</v>
       </c>
       <c r="H262">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>-187824.64823868</v>
       </c>
       <c r="H263">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>-184344.07103868</v>
       </c>
       <c r="H264">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>-184347.07103868</v>
       </c>
       <c r="H265">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>-187381.96703868</v>
       </c>
       <c r="H266">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>-187380.96703868</v>
       </c>
       <c r="H267">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>-189417.06743868</v>
       </c>
       <c r="H268">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>-190610.21643868</v>
       </c>
       <c r="H269">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>-190609.21643868</v>
       </c>
       <c r="H270">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>-190609.21643868</v>
       </c>
       <c r="H271">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>-190609.21643868</v>
       </c>
       <c r="H272">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>-191738.56963868</v>
       </c>
       <c r="H273">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>-191738.56963868</v>
       </c>
       <c r="H274">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>-200638.22213868</v>
       </c>
       <c r="H276">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>-199709.22213868</v>
       </c>
       <c r="H278">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>-199709.22213868</v>
       </c>
       <c r="H279">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>-199709.22213868</v>
       </c>
       <c r="H280">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>-199528.22213868</v>
       </c>
       <c r="H283">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>-199719.25633868</v>
       </c>
       <c r="H284">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>-197091.49523868</v>
       </c>
       <c r="H285">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>-197091.49523868</v>
       </c>
       <c r="H286">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>-197436.60733868</v>
       </c>
       <c r="H287">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>-194526.60733868</v>
       </c>
       <c r="H288">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>-194527.60733868</v>
       </c>
       <c r="H289">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>-194527.60733868</v>
       </c>
       <c r="H290">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>-195251.09353868</v>
       </c>
       <c r="H291">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>-195247.09353868</v>
       </c>
       <c r="H292">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>-195247.09353868</v>
       </c>
       <c r="H293">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>-194518.09353868</v>
       </c>
       <c r="H294">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>-194518.09353868</v>
       </c>
       <c r="H295">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>-194170.09353868</v>
       </c>
       <c r="H296">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>-194176.09353868</v>
       </c>
       <c r="H297">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>-195085.40053868</v>
       </c>
       <c r="H298">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>-195815.40053868</v>
       </c>
       <c r="H299">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>-195812.40053868</v>
       </c>
       <c r="H300">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>-196315.98833868</v>
       </c>
       <c r="H301">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>-196315.98833868</v>
       </c>
       <c r="H302">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>-196334.36823868</v>
       </c>
       <c r="H303">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>-196334.36823868</v>
       </c>
       <c r="H304">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>-196334.36823868</v>
       </c>
       <c r="H305">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>-196360.08173868</v>
       </c>
       <c r="H306">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>-196360.08173868</v>
       </c>
       <c r="H307">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>-196360.08173868</v>
       </c>
       <c r="H308">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>-196360.08173868</v>
       </c>
       <c r="H309">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>-204056.48663868</v>
       </c>
       <c r="H310">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>-204054.48663868</v>
       </c>
       <c r="H311">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>-207447.53773868</v>
       </c>
       <c r="H312">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>-208341.89683868</v>
       </c>
       <c r="H313">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>-208341.89683868</v>
       </c>
       <c r="H314">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>-218256.39113868</v>
       </c>
       <c r="H315">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>-218155.39113868</v>
       </c>
       <c r="H316">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>-268352.83063868</v>
       </c>
       <c r="H317">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>-277652.28543868</v>
       </c>
       <c r="H318">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>-277651.28543868</v>
       </c>
       <c r="H319">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>-277804.60123868</v>
       </c>
       <c r="H320">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>-278243.60843868</v>
       </c>
       <c r="H321">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>-278243.60843868</v>
       </c>
       <c r="H322">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>-284248.24123868</v>
       </c>
       <c r="H323">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>-273871.78603868</v>
       </c>
       <c r="H324">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>-271803.65713868</v>
       </c>
       <c r="H325">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>-270736.40953868</v>
       </c>
       <c r="H326">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>-270916.40953868</v>
       </c>
       <c r="H327">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>-270991.35923868</v>
       </c>
       <c r="H328">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>-274080.69183868</v>
       </c>
       <c r="H329">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>-274079.69183868</v>
       </c>
       <c r="H330">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>-275032.34313868</v>
       </c>
       <c r="H331">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>-275054.46443868</v>
       </c>
       <c r="H332">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>-259053.46443868</v>
       </c>
       <c r="H333">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>-259258.34483868</v>
       </c>
       <c r="H334">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>-259256.24393868</v>
       </c>
       <c r="H335">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>-263568.4624386801</v>
       </c>
       <c r="H336">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>-263362.67263868</v>
       </c>
       <c r="H337">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -12872,7 +12872,7 @@
         <v>-2845269.548083045</v>
       </c>
       <c r="H480">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -12898,7 +12898,7 @@
         <v>-2845269.548083045</v>
       </c>
       <c r="H481">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -12924,7 +12924,7 @@
         <v>-2845269.548083045</v>
       </c>
       <c r="H482">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -13080,7 +13080,7 @@
         <v>-2843909.679683045</v>
       </c>
       <c r="H488">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -13106,7 +13106,7 @@
         <v>-2847114.761338519</v>
       </c>
       <c r="H489">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -13132,7 +13132,7 @@
         <v>-2846929.761338519</v>
       </c>
       <c r="H490">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -13210,7 +13210,7 @@
         <v>-2847283.667638519</v>
       </c>
       <c r="H493">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -13314,7 +13314,7 @@
         <v>-2835076.846338519</v>
       </c>
       <c r="H497">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -13418,7 +13418,7 @@
         <v>-2835076.846338519</v>
       </c>
       <c r="H501">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -13470,7 +13470,7 @@
         <v>-2843902.84323852</v>
       </c>
       <c r="H503">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -13496,7 +13496,7 @@
         <v>-2843901.84323852</v>
       </c>
       <c r="H504">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -13574,7 +13574,7 @@
         <v>-2857285.20253852</v>
       </c>
       <c r="H507">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -13626,7 +13626,7 @@
         <v>-2857359.20253852</v>
       </c>
       <c r="H509">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -13652,7 +13652,7 @@
         <v>-2857359.20253852</v>
       </c>
       <c r="H510">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -13756,7 +13756,7 @@
         <v>-2857786.64033852</v>
       </c>
       <c r="H514">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="515" spans="1:8">
@@ -13860,7 +13860,7 @@
         <v>-2847403.69153852</v>
       </c>
       <c r="H518">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="519" spans="1:8">
@@ -13886,7 +13886,7 @@
         <v>-2847903.69173852</v>
       </c>
       <c r="H519">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -13912,7 +13912,7 @@
         <v>-2847902.69173852</v>
       </c>
       <c r="H520">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="521" spans="1:8">
@@ -13938,7 +13938,7 @@
         <v>-2847902.69173852</v>
       </c>
       <c r="H521">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="522" spans="1:8">
@@ -13964,7 +13964,7 @@
         <v>-2853075.32233852</v>
       </c>
       <c r="H522">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="523" spans="1:8">
@@ -13990,7 +13990,7 @@
         <v>-2870210.261338519</v>
       </c>
       <c r="H523">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="524" spans="1:8">
@@ -14744,7 +14744,7 @@
         <v>-2871638.158665926</v>
       </c>
       <c r="H552">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="553" spans="1:8">
@@ -14770,7 +14770,7 @@
         <v>-2870653.158665926</v>
       </c>
       <c r="H553">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="554" spans="1:8">
@@ -14796,7 +14796,7 @@
         <v>-2869918.579365926</v>
       </c>
       <c r="H554">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="555" spans="1:8">
@@ -14848,7 +14848,7 @@
         <v>-2863832.054686923</v>
       </c>
       <c r="H556">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="557" spans="1:8">
@@ -14874,7 +14874,7 @@
         <v>-2863834.054686923</v>
       </c>
       <c r="H557">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="558" spans="1:8">
@@ -14900,7 +14900,7 @@
         <v>-2863915.229786923</v>
       </c>
       <c r="H558">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="559" spans="1:8">
@@ -14926,7 +14926,7 @@
         <v>-2863913.080586923</v>
       </c>
       <c r="H559">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="560" spans="1:8">
@@ -14952,7 +14952,7 @@
         <v>-2863913.080586923</v>
       </c>
       <c r="H560">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="561" spans="1:8">
@@ -14978,7 +14978,7 @@
         <v>-2863934.968986923</v>
       </c>
       <c r="H561">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="562" spans="1:8">
@@ -15004,7 +15004,7 @@
         <v>-2863934.968986923</v>
       </c>
       <c r="H562">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="563" spans="1:8">
@@ -15030,7 +15030,7 @@
         <v>-2863934.968986923</v>
       </c>
       <c r="H563">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="564" spans="1:8">
@@ -15056,7 +15056,7 @@
         <v>-2863934.968986923</v>
       </c>
       <c r="H564">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="565" spans="1:8">
@@ -15082,7 +15082,7 @@
         <v>-2864002.493986923</v>
       </c>
       <c r="H565">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="566" spans="1:8">
@@ -15108,7 +15108,7 @@
         <v>-2864002.493986923</v>
       </c>
       <c r="H566">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="567" spans="1:8">
@@ -15134,7 +15134,7 @@
         <v>-2864002.493986923</v>
       </c>
       <c r="H567">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="568" spans="1:8">
@@ -15160,7 +15160,7 @@
         <v>-2864001.484186923</v>
       </c>
       <c r="H568">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="569" spans="1:8">
@@ -15186,7 +15186,7 @@
         <v>-2863905.728086923</v>
       </c>
       <c r="H569">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="570" spans="1:8">
@@ -15212,7 +15212,7 @@
         <v>-2863910.728086923</v>
       </c>
       <c r="H570">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="571" spans="1:8">
@@ -15238,7 +15238,7 @@
         <v>-2865590.862586923</v>
       </c>
       <c r="H571">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="572" spans="1:8">
@@ -15264,7 +15264,7 @@
         <v>-2865590.862586923</v>
       </c>
       <c r="H572">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="573" spans="1:8">
@@ -15290,7 +15290,7 @@
         <v>-2865399.862586923</v>
       </c>
       <c r="H573">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="574" spans="1:8">
@@ -15316,7 +15316,7 @@
         <v>-2866829.658786923</v>
       </c>
       <c r="H574">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="575" spans="1:8">
@@ -15342,7 +15342,7 @@
         <v>-2866799.658786923</v>
       </c>
       <c r="H575">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="576" spans="1:8">
@@ -15368,7 +15368,7 @@
         <v>-2866793.658786923</v>
       </c>
       <c r="H576">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="577" spans="1:8">
@@ -15394,7 +15394,7 @@
         <v>-2866798.865486923</v>
       </c>
       <c r="H577">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="578" spans="1:8">
@@ -15420,7 +15420,7 @@
         <v>-2866798.865486923</v>
       </c>
       <c r="H578">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="579" spans="1:8">
@@ -15446,7 +15446,7 @@
         <v>-2866793.739686923</v>
       </c>
       <c r="H579">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="580" spans="1:8">
@@ -15472,7 +15472,7 @@
         <v>-2866831.801186923</v>
       </c>
       <c r="H580">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="581" spans="1:8">
@@ -15498,7 +15498,7 @@
         <v>-2866831.801186923</v>
       </c>
       <c r="H581">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="582" spans="1:8">
@@ -15524,7 +15524,7 @@
         <v>-2868257.869386923</v>
       </c>
       <c r="H582">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="583" spans="1:8">
@@ -15550,7 +15550,7 @@
         <v>-2868256.769586923</v>
       </c>
       <c r="H583">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="584" spans="1:8">
@@ -15576,7 +15576,7 @@
         <v>-2868259.210586923</v>
       </c>
       <c r="H584">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="585" spans="1:8">
@@ -15602,7 +15602,7 @@
         <v>-2868257.728886923</v>
       </c>
       <c r="H585">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="586" spans="1:8">
@@ -15628,7 +15628,7 @@
         <v>-2868259.068886923</v>
       </c>
       <c r="H586">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="587" spans="1:8">
@@ -15654,7 +15654,7 @@
         <v>-2868208.774586923</v>
       </c>
       <c r="H587">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="588" spans="1:8">
@@ -15680,7 +15680,7 @@
         <v>-2868208.774586923</v>
       </c>
       <c r="H588">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="589" spans="1:8">
@@ -15706,7 +15706,7 @@
         <v>-2870790.499886923</v>
       </c>
       <c r="H589">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="590" spans="1:8">
@@ -15732,7 +15732,7 @@
         <v>-2870788.952186923</v>
       </c>
       <c r="H590">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="591" spans="1:8">
@@ -15758,7 +15758,7 @@
         <v>-2870788.952186923</v>
       </c>
       <c r="H591">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="592" spans="1:8">
@@ -15784,7 +15784,7 @@
         <v>-2870883.952186923</v>
       </c>
       <c r="H592">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="593" spans="1:8">
@@ -15810,7 +15810,7 @@
         <v>-2870882.942386923</v>
       </c>
       <c r="H593">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="594" spans="1:8">
@@ -15836,7 +15836,7 @@
         <v>-2870882.942386923</v>
       </c>
       <c r="H594">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2019-10-11 TRUE ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-11 TRUE ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-27642.24102816901</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-30445.42882816901</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-30342.53652816901</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-31120.25272816901</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-29841.13942816901</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-30095.25472816901</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-30095.25472816901</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-30095.25472816901</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-30079.06722816901</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-30808.10662816901</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-30808.10662816901</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-30808.10662816901</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-30342.16382816901</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-30343.16382816901</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-30314.96842816901</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-30314.96842816901</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-30318.18002816901</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-30318.18002816901</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-29621.34442816901</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-28321.34442816901</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-28321.34442816901</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-28321.34442816901</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-28321.34442816901</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-28939.00542816901</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-32037.88882816901</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-31978.78222816901</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-32990.17562816901</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-32990.17562816901</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-32988.00322816901</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-34300.69022816901</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-34100.69022816901</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-33235.69022816901</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-42061.66482816901</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-45514.56222816901</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-45374.06142816901</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-50026.694628169</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-50025.594828169</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-57296.201628169</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-57296.201628169</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-57296.201628169</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-57296.201628169</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-57297.201628169</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-57298.201628169</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-58888.426428169</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-58888.426428169</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-59073.426328169</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-59073.426328169</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-59073.426328169</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-59073.426328169</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-59073.426328169</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-53153.926628169</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-53153.926628169</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-53079.210128169</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-53183.283528169</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-53183.283528169</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-53183.283528169</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-53183.283528169</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-53183.283528169</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-53183.283528169</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-53183.283528169</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-53183.283528169</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-54229.454928169</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-54227.091328169</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-59720.523228169</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-83848.457428169</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-86393.64192816902</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-83088.8310722951</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-74874.7453722951</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-74844.7453722951</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-66160.81410223861</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-64436.3015722951</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-67715.52337229511</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-68011.44437229511</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-78550.70884235161</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-78616.38404235161</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-79232.00994235161</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-78805.84094235161</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-79978.40684235161</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-79893.54574235162</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-78540.93534235161</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-77720.58144235161</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-77720.58144235161</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-76491.96524235161</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-76439.63714235161</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-91759.47394235161</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-91815.66824235162</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-92404.80424235162</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-92404.80424235162</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-92635.65404235161</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-93637.51254235161</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-93637.51254235161</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-94249.33304235162</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-94247.09164235162</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-94247.09164235162</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-94256.48744235162</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-94256.48744235162</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-96809.41903185598</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-97796.70473185598</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-97796.70473185598</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-97796.70473185598</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-119409.859031856</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-120310.265231856</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>-133274.7143878774</v>
       </c>
       <c r="H175">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>-131714.7143878774</v>
       </c>
       <c r="H176">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-131985.4383878774</v>
       </c>
       <c r="H177">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>-130809.6003878774</v>
       </c>
       <c r="H181">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>-130809.6003878774</v>
       </c>
       <c r="H182">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>-130809.6003878774</v>
       </c>
       <c r="H183">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>-131005.4500878774</v>
       </c>
       <c r="H184">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>-130725.4500878774</v>
       </c>
       <c r="H185">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>-129672.3080878774</v>
       </c>
       <c r="H186">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>-130020.1500878774</v>
       </c>
       <c r="H187">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>-130020.1500878774</v>
       </c>
       <c r="H188">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>-130020.1500878774</v>
       </c>
       <c r="H189">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>-127005.7288878774</v>
       </c>
       <c r="H190">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>-127306.7288878774</v>
       </c>
       <c r="H191">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>-126773.7113878774</v>
       </c>
       <c r="H192">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>-125019.0106878774</v>
       </c>
       <c r="H193">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>-125029.0106878774</v>
       </c>
       <c r="H194">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>-130281.6825878774</v>
       </c>
       <c r="H195">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>-131128.1360878774</v>
       </c>
       <c r="H196">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>-131128.1360878774</v>
       </c>
       <c r="H197">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>-129986.1360878774</v>
       </c>
       <c r="H198">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>-129986.1360878774</v>
       </c>
       <c r="H199">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>-129986.1360878774</v>
       </c>
       <c r="H200">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>-128620.1360878774</v>
       </c>
       <c r="H201">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>-128912.1087878774</v>
       </c>
       <c r="H202">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>-128172.1087878774</v>
       </c>
       <c r="H203">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>-128380.4767878774</v>
       </c>
       <c r="H204">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>-128181.1069878774</v>
       </c>
       <c r="H205">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>-125565.5589374426</v>
       </c>
       <c r="H206">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>-122234.0357374426</v>
       </c>
       <c r="H209">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>-130990.2212374426</v>
       </c>
       <c r="H211">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>-131222.2212374426</v>
       </c>
       <c r="H213">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>-130071.564544668</v>
       </c>
       <c r="H214">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>-130251.564544668</v>
       </c>
       <c r="H215">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>-129950.996444668</v>
       </c>
       <c r="H216">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>-130655.996444668</v>
       </c>
       <c r="H217">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>-130835.996444668</v>
       </c>
       <c r="H218">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>-137305.472644668</v>
       </c>
       <c r="H221">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>-173254.718944668</v>
       </c>
       <c r="H235">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>-173544.416144668</v>
       </c>
       <c r="H236">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>-173114.371844668</v>
       </c>
       <c r="H237">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>-173113.105644668</v>
       </c>
       <c r="H238">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>-172548.105644668</v>
       </c>
       <c r="H239">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>-173033.105644668</v>
       </c>
       <c r="H240">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>-173033.105644668</v>
       </c>
       <c r="H241">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>-173381.665644668</v>
       </c>
       <c r="H242">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>-173034.258544668</v>
       </c>
       <c r="H243">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>-173034.258544668</v>
       </c>
       <c r="H244">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>-173034.258544668</v>
       </c>
       <c r="H245">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>-173034.258544668</v>
       </c>
       <c r="H246">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>-173135.258544668</v>
       </c>
       <c r="H247">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>-172648.79613868</v>
       </c>
       <c r="H249">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>-172996.35613868</v>
       </c>
       <c r="H250">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>-172993.35613868</v>
       </c>
       <c r="H251">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>-178314.03993868</v>
       </c>
       <c r="H252">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>-177784.01633868</v>
       </c>
       <c r="H253">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>-176440.01633868</v>
       </c>
       <c r="H255">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>-176440.01633868</v>
       </c>
       <c r="H256">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>-176440.01633868</v>
       </c>
       <c r="H257">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>-186441.01633868</v>
       </c>
       <c r="H258">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>-186453.01633868</v>
       </c>
       <c r="H259">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>-186450.01633868</v>
       </c>
       <c r="H260">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>-188003.64823868</v>
       </c>
       <c r="H261">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>-187824.64823868</v>
       </c>
       <c r="H262">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>-187824.64823868</v>
       </c>
       <c r="H263">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>-184344.07103868</v>
       </c>
       <c r="H264">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>-184347.07103868</v>
       </c>
       <c r="H265">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>-187381.96703868</v>
       </c>
       <c r="H266">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>-187380.96703868</v>
       </c>
       <c r="H267">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>-189417.06743868</v>
       </c>
       <c r="H268">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>-190610.21643868</v>
       </c>
       <c r="H269">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>-190609.21643868</v>
       </c>
       <c r="H270">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>-190609.21643868</v>
       </c>
       <c r="H271">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>-190609.21643868</v>
       </c>
       <c r="H272">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>-191738.56963868</v>
       </c>
       <c r="H273">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>-191738.56963868</v>
       </c>
       <c r="H274">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>-200638.22213868</v>
       </c>
       <c r="H276">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>-199709.22213868</v>
       </c>
       <c r="H278">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>-199709.22213868</v>
       </c>
       <c r="H279">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>-199709.22213868</v>
       </c>
       <c r="H280">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>-199528.22213868</v>
       </c>
       <c r="H283">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>-199719.25633868</v>
       </c>
       <c r="H284">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>-197091.49523868</v>
       </c>
       <c r="H285">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>-197091.49523868</v>
       </c>
       <c r="H286">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>-197436.60733868</v>
       </c>
       <c r="H287">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>-194526.60733868</v>
       </c>
       <c r="H288">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>-194527.60733868</v>
       </c>
       <c r="H289">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>-194527.60733868</v>
       </c>
       <c r="H290">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>-195251.09353868</v>
       </c>
       <c r="H291">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>-195247.09353868</v>
       </c>
       <c r="H292">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>-195247.09353868</v>
       </c>
       <c r="H293">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>-194518.09353868</v>
       </c>
       <c r="H294">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>-194518.09353868</v>
       </c>
       <c r="H295">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>-194170.09353868</v>
       </c>
       <c r="H296">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>-194176.09353868</v>
       </c>
       <c r="H297">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>-195085.40053868</v>
       </c>
       <c r="H298">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>-195815.40053868</v>
       </c>
       <c r="H299">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>-195812.40053868</v>
       </c>
       <c r="H300">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>-196315.98833868</v>
       </c>
       <c r="H301">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>-196315.98833868</v>
       </c>
       <c r="H302">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>-196334.36823868</v>
       </c>
       <c r="H303">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>-196334.36823868</v>
       </c>
       <c r="H304">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>-196334.36823868</v>
       </c>
       <c r="H305">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>-196360.08173868</v>
       </c>
       <c r="H306">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>-196360.08173868</v>
       </c>
       <c r="H307">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>-196360.08173868</v>
       </c>
       <c r="H308">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>-196360.08173868</v>
       </c>
       <c r="H309">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>-204056.48663868</v>
       </c>
       <c r="H310">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>-204054.48663868</v>
       </c>
       <c r="H311">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>-207447.53773868</v>
       </c>
       <c r="H312">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>-208341.89683868</v>
       </c>
       <c r="H313">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>-208341.89683868</v>
       </c>
       <c r="H314">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>-218256.39113868</v>
       </c>
       <c r="H315">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>-218155.39113868</v>
       </c>
       <c r="H316">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>-268352.83063868</v>
       </c>
       <c r="H317">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>-277652.28543868</v>
       </c>
       <c r="H318">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>-277651.28543868</v>
       </c>
       <c r="H319">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>-277804.60123868</v>
       </c>
       <c r="H320">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>-278243.60843868</v>
       </c>
       <c r="H321">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>-278243.60843868</v>
       </c>
       <c r="H322">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>-284248.24123868</v>
       </c>
       <c r="H323">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>-273871.78603868</v>
       </c>
       <c r="H324">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>-271803.65713868</v>
       </c>
       <c r="H325">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>-270736.40953868</v>
       </c>
       <c r="H326">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>-270916.40953868</v>
       </c>
       <c r="H327">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>-270991.35923868</v>
       </c>
       <c r="H328">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>-274080.69183868</v>
       </c>
       <c r="H329">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>-274079.69183868</v>
       </c>
       <c r="H330">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>-275032.34313868</v>
       </c>
       <c r="H331">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>-275054.46443868</v>
       </c>
       <c r="H332">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>-259053.46443868</v>
       </c>
       <c r="H333">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>-259258.34483868</v>
       </c>
       <c r="H334">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>-259256.24393868</v>
       </c>
       <c r="H335">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>-263568.4624386801</v>
       </c>
       <c r="H336">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>-263362.67263868</v>
       </c>
       <c r="H337">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -12404,7 +12404,7 @@
         <v>-2878753.819683046</v>
       </c>
       <c r="H462">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -12482,7 +12482,7 @@
         <v>-2842765.804983046</v>
       </c>
       <c r="H465">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -12508,7 +12508,7 @@
         <v>-2839523.047983046</v>
       </c>
       <c r="H466">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -12872,7 +12872,7 @@
         <v>-2845269.548083045</v>
       </c>
       <c r="H480">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -12898,7 +12898,7 @@
         <v>-2845269.548083045</v>
       </c>
       <c r="H481">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -12924,7 +12924,7 @@
         <v>-2845269.548083045</v>
       </c>
       <c r="H482">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -12950,7 +12950,7 @@
         <v>-2845207.548083045</v>
       </c>
       <c r="H483">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -12976,7 +12976,7 @@
         <v>-2841733.856983045</v>
       </c>
       <c r="H484">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -13080,7 +13080,7 @@
         <v>-2843909.679683045</v>
       </c>
       <c r="H488">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -13210,7 +13210,7 @@
         <v>-2847283.667638519</v>
       </c>
       <c r="H493">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -13314,7 +13314,7 @@
         <v>-2835076.846338519</v>
       </c>
       <c r="H497">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -13418,7 +13418,7 @@
         <v>-2835076.846338519</v>
       </c>
       <c r="H501">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -13574,7 +13574,7 @@
         <v>-2857285.20253852</v>
       </c>
       <c r="H507">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -13756,7 +13756,7 @@
         <v>-2857786.64033852</v>
       </c>
       <c r="H514">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="515" spans="1:8">
@@ -13860,7 +13860,7 @@
         <v>-2847403.69153852</v>
       </c>
       <c r="H518">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="519" spans="1:8">
@@ -13964,7 +13964,7 @@
         <v>-2853075.32233852</v>
       </c>
       <c r="H522">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="523" spans="1:8">
@@ -13990,7 +13990,7 @@
         <v>-2870210.261338519</v>
       </c>
       <c r="H523">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="524" spans="1:8">
@@ -15212,7 +15212,7 @@
         <v>-2863910.728086923</v>
       </c>
       <c r="H570">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="571" spans="1:8">
@@ -15238,7 +15238,7 @@
         <v>-2865590.862586923</v>
       </c>
       <c r="H571">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="572" spans="1:8">
@@ -15264,7 +15264,7 @@
         <v>-2865590.862586923</v>
       </c>
       <c r="H572">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="573" spans="1:8">
@@ -15290,7 +15290,7 @@
         <v>-2865399.862586923</v>
       </c>
       <c r="H573">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="574" spans="1:8">
@@ -15316,7 +15316,7 @@
         <v>-2866829.658786923</v>
       </c>
       <c r="H574">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="575" spans="1:8">
@@ -15394,7 +15394,7 @@
         <v>-2866798.865486923</v>
       </c>
       <c r="H577">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="578" spans="1:8">
@@ -15472,7 +15472,7 @@
         <v>-2866831.801186923</v>
       </c>
       <c r="H580">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="581" spans="1:8">
@@ -15576,7 +15576,7 @@
         <v>-2868259.210586923</v>
       </c>
       <c r="H584">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="585" spans="1:8">
@@ -15602,7 +15602,7 @@
         <v>-2868257.728886923</v>
       </c>
       <c r="H585">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="586" spans="1:8">
@@ -15628,7 +15628,7 @@
         <v>-2868259.068886923</v>
       </c>
       <c r="H586">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="587" spans="1:8">
@@ -15654,7 +15654,7 @@
         <v>-2868208.774586923</v>
       </c>
       <c r="H587">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="588" spans="1:8">
@@ -15680,7 +15680,7 @@
         <v>-2868208.774586923</v>
       </c>
       <c r="H588">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="589" spans="1:8">
@@ -15706,7 +15706,7 @@
         <v>-2870790.499886923</v>
       </c>
       <c r="H589">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="590" spans="1:8">
@@ -15732,7 +15732,7 @@
         <v>-2870788.952186923</v>
       </c>
       <c r="H590">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="591" spans="1:8">
@@ -15758,7 +15758,7 @@
         <v>-2870788.952186923</v>
       </c>
       <c r="H591">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="592" spans="1:8">
@@ -15784,7 +15784,7 @@
         <v>-2870883.952186923</v>
       </c>
       <c r="H592">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="593" spans="1:8">
@@ -15810,7 +15810,7 @@
         <v>-2870882.942386923</v>
       </c>
       <c r="H593">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="594" spans="1:8">
@@ -15836,7 +15836,7 @@
         <v>-2870882.942386923</v>
       </c>
       <c r="H594">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
